--- a/Media/wealth.xlsx
+++ b/Media/wealth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubreyliu/Desktop/CFP/Media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A399254D-A69C-F94C-AE65-0D34AE3774A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E933F2-BA80-1A42-8056-18983970C0EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="460" windowWidth="27840" windowHeight="16740" xr2:uid="{228EF222-AE5D-5841-B341-A49CC371373F}"/>
   </bookViews>
@@ -139,13 +139,15 @@
     <t>海南</t>
   </si>
   <si>
-    <t>2008w</t>
-  </si>
-  <si>
-    <t>2018w</t>
-  </si>
-  <si>
     <t>浙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +569,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:C29"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -577,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -882,7 +884,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>4050.2998229430582</v>
